--- a/Tebu/Produksi Tebu Provinsi 2015-2018 (Kementan).xlsx
+++ b/Tebu/Produksi Tebu Provinsi 2015-2018 (Kementan).xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\7. Magang\BigProject\Tebu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Visualisasi-Data_Riset\Tebu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85C34B1B-EAFE-4C55-AEF0-FACF7FE8F246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C40D47-959E-4E97-8D35-C468A0802545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Lokasi</t>
   </si>
@@ -87,14 +78,11 @@
   <si>
     <t>Gorontalo</t>
   </si>
-  <si>
-    <t>Sumber Data : Kementerian Pertanian</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,11 +534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N238"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="A2:H12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,9 +940,6 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
